--- a/posesiones/1381299.xlsx
+++ b/posesiones/1381299.xlsx
@@ -1850,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>23</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>14</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>20</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>13</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>19</v>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>20</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>19</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>23</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>17</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>6</v>
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>23</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3453,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>15</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>14</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>19</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>19</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>19</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4103,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>17</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>8</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>16</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>13</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>19</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>6</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>19</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R61">
         <v>6</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R63">
         <v>3</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5388,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>16</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>22</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R80">
         <v>14</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>14</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>18</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R88">
         <v>14</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R90">
         <v>4</v>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R91">
         <v>25</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R93">
         <v>12</v>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R97">
         <v>15</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R99">
         <v>22</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R107">
         <v>15</v>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -7129,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7267,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7320,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R113">
         <v>10</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R116">
         <v>23</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R118">
         <v>19</v>
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7670,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R120">
         <v>11</v>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R124">
         <v>22</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R130">
         <v>12</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8446,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8593,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R139">
         <v>10</v>
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R140">
         <v>14</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8746,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R142">
         <v>19</v>
@@ -8799,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R143">
         <v>22</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8899,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R145">
         <v>15</v>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R147">
         <v>7</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9102,7 +9102,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R149">
         <v>7</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9296,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R153">
         <v>27</v>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9443,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R156">
         <v>21</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9546,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R158">
         <v>14</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R160">
         <v>24</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9746,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R162">
         <v>9</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R164">
         <v>18</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10084,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R172">
         <v>16</v>
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R175">
         <v>22</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R182">
         <v>16</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10810,7 +10810,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R184">
         <v>15</v>
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R185">
         <v>17</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R197">
         <v>17</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11677,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11821,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R205">
         <v>10</v>
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R206">
         <v>15</v>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11974,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R208">
         <v>22</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R213">
         <v>13</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12506,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R219">
         <v>19</v>
@@ -12559,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R220">
         <v>16</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R222">
         <v>8</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12944,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R228">
         <v>23</v>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R230">
         <v>9</v>
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13144,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R232">
         <v>21</v>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13579,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R241">
         <v>37</v>
@@ -13632,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R242">
         <v>0</v>
@@ -13676,10 +13676,10 @@
         <v>1</v>
       </c>
       <c r="P243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13814,10 +13814,10 @@
         <v>1</v>
       </c>
       <c r="P246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R247">
         <v>18</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R252">
         <v>21</v>
@@ -14164,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R253">
         <v>6</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R260">
         <v>33</v>
@@ -14552,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14599,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R264">
         <v>15</v>
@@ -14749,7 +14749,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R265">
         <v>10</v>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14849,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R267">
         <v>4</v>
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15049,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R271">
         <v>21</v>
@@ -15102,7 +15102,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R275">
         <v>20</v>
@@ -15296,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15387,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15481,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R284">
         <v>28</v>
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15775,7 +15775,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>20</v>
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15878,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R288">
         <v>5</v>
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R292">
         <v>18</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R294">
         <v>9</v>
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16369,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16416,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R300">
         <v>11</v>
@@ -16519,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R301">
         <v>10</v>
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16619,7 +16619,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R303">
         <v>18</v>
@@ -16669,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16716,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16763,7 +16763,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16810,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R310">
         <v>27</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R311">
         <v>19</v>
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R313">
         <v>22</v>
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17257,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R316">
         <v>14</v>
@@ -17307,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17354,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17448,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17498,7 +17498,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>18</v>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17695,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R325">
         <v>16</v>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17889,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17939,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R330">
         <v>30</v>
@@ -17992,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18042,7 +18042,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R332">
         <v>14</v>
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18142,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R334">
         <v>20</v>
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18339,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R338">
         <v>17</v>
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18442,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R340">
         <v>10</v>
@@ -18492,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18633,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18683,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R345">
         <v>0</v>
@@ -18736,7 +18736,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18786,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R347">
         <v>8</v>
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18889,7 +18889,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R349">
         <v>22</v>
@@ -18939,7 +18939,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19039,7 +19039,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R352">
         <v>4</v>
@@ -19089,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19139,7 +19139,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R354">
         <v>18</v>
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19239,7 +19239,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R358">
         <v>12</v>
@@ -19386,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19436,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R360">
         <v>25</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19530,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19671,7 +19671,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19768,7 +19768,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R367">
         <v>21</v>
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19865,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19906,10 +19906,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20050,7 +20050,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20138,10 +20138,10 @@
         <v>1</v>
       </c>
       <c r="P375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20191,7 +20191,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R376">
         <v>16</v>
@@ -20241,7 +20241,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20291,7 +20291,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R378">
         <v>21</v>
@@ -20341,7 +20341,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20435,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20485,7 +20485,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R382">
         <v>0</v>
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20585,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20632,7 +20632,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20682,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R386">
         <v>16</v>
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20782,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R388">
         <v>21</v>
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20879,7 +20879,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20929,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20979,7 +20979,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R392">
         <v>25</v>
@@ -21032,7 +21032,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R393">
         <v>16</v>
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21135,7 +21135,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R395">
         <v>7</v>
@@ -21188,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R396">
         <v>16</v>
@@ -21241,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21291,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R398">
         <v>21</v>
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21394,7 +21394,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R400">
         <v>11</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21491,7 +21491,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21588,7 +21588,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R404">
         <v>16</v>
@@ -21638,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21688,7 +21688,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21738,7 +21738,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R407">
         <v>21</v>
@@ -21788,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21929,7 +21929,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21979,7 +21979,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R412">
         <v>26</v>
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22079,7 +22079,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R414">
         <v>21</v>
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22176,7 +22176,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22270,7 +22270,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22317,7 +22317,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22364,7 +22364,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22411,7 +22411,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22508,7 +22508,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R423">
         <v>21</v>
@@ -22561,7 +22561,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R424">
         <v>13</v>
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22664,7 +22664,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R426">
         <v>22</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22902,7 +22902,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R431">
         <v>11</v>
@@ -22952,7 +22952,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23002,7 +23002,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R433">
         <v>6</v>
@@ -23055,7 +23055,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R434">
         <v>14</v>
@@ -23105,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23246,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23343,7 +23343,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R440">
         <v>4</v>
@@ -23396,7 +23396,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R441">
         <v>13</v>
@@ -23449,7 +23449,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R442">
         <v>18</v>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23552,7 +23552,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R444">
         <v>18</v>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23655,7 +23655,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R446">
         <v>19</v>
@@ -23705,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23987,7 +23987,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R453">
         <v>7</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24084,7 +24084,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24131,7 +24131,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24225,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24275,7 +24275,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R459">
         <v>15</v>
@@ -24328,7 +24328,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R460">
         <v>8</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24425,7 +24425,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24519,7 +24519,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24569,7 +24569,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R465">
         <v>17</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24763,7 +24763,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24860,7 +24860,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24910,7 +24910,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R472">
         <v>25</v>
@@ -24963,7 +24963,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R473">
         <v>24</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25063,7 +25063,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>5</v>
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25254,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25304,7 +25304,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R480">
         <v>8</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25545,7 +25545,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25595,7 +25595,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R486">
         <v>14</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25695,7 +25695,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R488">
         <v>5</v>
@@ -25745,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25795,7 +25795,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R490">
         <v>8</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25898,7 +25898,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R492">
         <v>16</v>
@@ -25951,7 +25951,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25998,7 +25998,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26048,7 +26048,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26098,7 +26098,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R496">
         <v>16</v>
@@ -26142,10 +26142,10 @@
         <v>1</v>
       </c>
       <c r="P497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q497">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="498" spans="1:17">
@@ -26186,7 +26186,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
